--- a/spc/results/t01/M_0.30_k_0.10/iht_GAUSSIAN_20dB/iht_residuals_run_1.xlsx
+++ b/spc/results/t01/M_0.30_k_0.10/iht_GAUSSIAN_20dB/iht_residuals_run_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A467"/>
+  <dimension ref="A1:A333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2100,676 +2100,6 @@
         <v>77.88274887146973</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" t="n">
-        <v>77.8736945900289</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="n">
-        <v>77.86556236596554</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="n">
-        <v>77.85822422486139</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="n">
-        <v>77.85157539286263</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="n">
-        <v>77.84552914811188</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="n">
-        <v>77.84001299839228</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="n">
-        <v>77.83496580263585</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="n">
-        <v>77.83033557420598</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="n">
-        <v>77.76104993614996</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="n">
-        <v>77.70196488077892</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="n">
-        <v>77.65393832249779</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="n">
-        <v>77.61413962232707</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="n">
-        <v>77.58062769330714</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="n">
-        <v>77.55203311579297</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="n">
-        <v>77.52736370415903</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="n">
-        <v>77.50588281200707</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="n">
-        <v>77.48703133116891</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="n">
-        <v>77.41273785430931</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="n">
-        <v>77.34997691529135</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="n">
-        <v>77.29882942922886</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="n">
-        <v>77.25635541165097</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="n">
-        <v>77.22052110210784</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="n">
-        <v>77.1898858113597</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="n">
-        <v>77.16340482358034</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="n">
-        <v>77.1403032733097</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="n">
-        <v>77.11999403618077</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="n">
-        <v>77.10202331656161</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="n">
-        <v>77.08603393158891</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="n">
-        <v>77.07174008058909</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="n">
-        <v>77.0016768764422</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="n">
-        <v>76.94322581888318</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="n">
-        <v>76.89559858394038</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="n">
-        <v>76.85599255500819</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="n">
-        <v>76.82250738236863</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="n">
-        <v>76.79381521270493</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="n">
-        <v>76.76896076082322</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="n">
-        <v>76.7472376820876</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="n">
-        <v>76.72811047209768</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="n">
-        <v>76.71116399238409</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="n">
-        <v>76.69607006908117</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="n">
-        <v>76.68256485186538</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="n">
-        <v>76.6704330965924</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="n">
-        <v>76.65949699982515</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="n">
-        <v>76.64960809210467</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="n">
-        <v>76.64064123186327</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="n">
-        <v>76.63249007294279</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="n">
-        <v>76.62506358702629</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="n">
-        <v>76.61828335574315</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="n">
-        <v>76.61208143427017</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="n">
-        <v>76.60639864610789</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="n">
-        <v>76.601183207886</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="n">
-        <v>76.59638961006505</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="n">
-        <v>76.59197769835981</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="n">
-        <v>76.58791191424464</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="n">
-        <v>76.58416066271417</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="n">
-        <v>76.58069578269688</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="n">
-        <v>76.57749210090573</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="n">
-        <v>76.57452705397826</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="n">
-        <v>76.51556483178773</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="n">
-        <v>76.4671281396956</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="n">
-        <v>76.42901731973973</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="n">
-        <v>76.39838562189172</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="n">
-        <v>76.37330951574185</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="n">
-        <v>76.3524569900287</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="n">
-        <v>76.33488348402253</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="n">
-        <v>76.31990387324379</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="n">
-        <v>76.3070105590643</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="n">
-        <v>76.29582000551322</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="n">
-        <v>76.28603714801153</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="n">
-        <v>76.27743123579859</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="n">
-        <v>76.26981912270585</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="n">
-        <v>76.26305349759691</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="n">
-        <v>76.25701444865689</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="n">
-        <v>76.25160331644058</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="n">
-        <v>76.24673814432343</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="n">
-        <v>76.24235026163603</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="n">
-        <v>76.23838168221721</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="n">
-        <v>76.23478309849995</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="n">
-        <v>76.23151231651285</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="n">
-        <v>76.22853302154581</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="n">
-        <v>76.22581379481365</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="n">
-        <v>76.2233273228133</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="n">
-        <v>76.22104975618703</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="n">
-        <v>76.21896018573347</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="n">
-        <v>76.21704021105776</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="n">
-        <v>76.21527358310814</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="n">
-        <v>76.21364590611152</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="n">
-        <v>76.21214438761437</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="n">
-        <v>76.21075762775084</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="n">
-        <v>76.20947544070276</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="n">
-        <v>76.20828870273529</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="n">
-        <v>76.20718922229392</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="n">
-        <v>76.20616962850961</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="n">
-        <v>76.20522327513947</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="n">
-        <v>76.2043441575085</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="n">
-        <v>76.20352684044862</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="n">
-        <v>76.20276639557905</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="n">
-        <v>76.20205834654934</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="n">
-        <v>76.20139862109691</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="n">
-        <v>76.20078350895419</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="n">
-        <v>76.20020962479508</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="n">
-        <v>76.19967387553525</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="n">
-        <v>76.19917343140561</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="n">
-        <v>76.19870570030461</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="n">
-        <v>76.1982683050081</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="n">
-        <v>76.1978590628752</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="n">
-        <v>76.1974759677408</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="n">
-        <v>76.19711717372769</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="n">
-        <v>76.19678098074749</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="n">
-        <v>76.19646582149157</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="n">
-        <v>76.19617024973857</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="n">
-        <v>76.19589292982764</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="n">
-        <v>76.19563262716684</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="n">
-        <v>76.19538819966117</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="n">
-        <v>76.19515858996024</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="n">
-        <v>76.19494281843703</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="n">
-        <v>76.19473997682026</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="n">
-        <v>76.19454922241219</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="n">
-        <v>76.19436977283097</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="n">
-        <v>76.19420090122441</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="n">
-        <v>76.19404193190813</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="n">
-        <v>76.19389223638511</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="n">
-        <v>76.19375122971033</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="n">
-        <v>76.19361836716654</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="n">
-        <v>76.19349314122135</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>76.19337507873975</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="n">
-        <v>76.19326373842746</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="n">
-        <v>76.1931587084844</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="n">
-        <v>76.19305960444888</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="n">
-        <v>76.19296606721535</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="n">
-        <v>76.19287776121037</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="n">
-        <v>76.19279437271257</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="n">
-        <v>76.19271560830437</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="n">
-        <v>76.19264119344393</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
